--- a/results.xlsx
+++ b/results.xlsx
@@ -874,7 +874,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -871,118 +871,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B3">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.46150000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>0.4909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C4">
-        <v>0.1111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>0.625</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0.54549999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>0.4909</v>
-      </c>
-      <c r="C8">
-        <v>0.56520000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.52170000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
       <c r="B10">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="C10">
-        <v>0.55559999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
         <v>0.66669999999999996</v>
-      </c>
-      <c r="C11">
-        <v>0.8</v>
       </c>
     </row>
   </sheetData>
